--- a/Git分支管理.xlsx
+++ b/Git分支管理.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>前言</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -647,6 +647,17 @@
   </si>
   <si>
     <t>https://www.softwhy.com/article-8651-1.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git分支新建与合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://git-scm.com/book/zh/v2/Git-分支-分支的新建与合并</t>
   </si>
 </sst>
 </file>
@@ -733,12 +744,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -746,10 +751,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1115,294 +1126,303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.875" customWidth="1"/>
+    <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="2" t="s">
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="34" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B39" s="5"/>
+      <c r="B39" s="3"/>
     </row>
     <row r="40" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
     </row>
     <row r="42" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B42" s="5"/>
+      <c r="B42" s="3"/>
     </row>
     <row r="43" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
     </row>
     <row r="45" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B45" s="5"/>
+      <c r="B45" s="3"/>
     </row>
     <row r="46" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1417,9 +1437,10 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="L1" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>